--- a/frontend/public/assets/VideoClips/Clip_List.xlsx
+++ b/frontend/public/assets/VideoClips/Clip_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\ELA\server\VideoClips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Videos\ELA Video\Clips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E91AB-542C-4FB2-B9B8-1B7D0532BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507E768E-595A-4955-B93F-825530856287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +83,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,16 +105,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,7 +393,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +414,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -433,7 +422,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -441,7 +430,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -449,7 +438,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -457,7 +446,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -465,21 +454,12 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AE7A61B3-79A9-4E6D-9A10-C20C0FF36E5E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CF28A3EB-5F56-458B-B3E1-82CC71D3AD1F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{BE298D5A-7B11-45E2-9D31-6548D247E93D}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{ED0EAA18-1FA3-43CC-813D-A2D7C5F59FB8}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{3A3A9600-38D1-4E11-9545-4749B77A8C0E}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{7F548D9F-A29C-4C08-99AA-75B3C85B17FA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>